--- a/src/assets/files/Company_Employee.xlsx
+++ b/src/assets/files/Company_Employee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20740" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Branch Code</t>
   </si>
@@ -33,12 +33,30 @@
   <si>
     <t>Department Code</t>
   </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>8056067642</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>Kannan Pk</t>
+  </si>
+  <si>
+    <t>kananemp@1mail.com</t>
+  </si>
+  <si>
+    <t>PD002</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,6 +81,20 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -144,10 +176,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -160,8 +196,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -523,31 +562,31 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="20.90625" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="15" max="15" width="20.6328125" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" customWidth="1"/>
-    <col min="20" max="21" width="11.88671875" customWidth="1"/>
+    <col min="18" max="18" width="16.08984375" customWidth="1"/>
+    <col min="19" max="19" width="17.08984375" customWidth="1"/>
+    <col min="20" max="21" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -572,12 +611,24 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="4"/>
@@ -23257,10 +23308,13 @@
       <c r="U999" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/assets/files/Company_Employee.xlsx
+++ b/src/assets/files/Company_Employee.xlsx
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,12 +88,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -183,7 +177,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -197,7 +191,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -562,7 +555,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -626,7 +619,7 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/assets/files/Company_Employee.xlsx
+++ b/src/assets/files/Company_Employee.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20740" windowHeight="11020"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -77,17 +77,17 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color theme="0"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -172,31 +172,54 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -215,30 +238,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -253,15 +252,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Branch Code" dataDxfId="5"/>
-    <tableColumn id="2" name="Employee Id" dataDxfId="4"/>
-    <tableColumn id="3" name="Employee Name" dataDxfId="3"/>
-    <tableColumn id="4" name="Email ID" dataDxfId="2"/>
-    <tableColumn id="16" name="Phone Number" dataDxfId="1"/>
-    <tableColumn id="17" name="Department Code" dataDxfId="0"/>
+    <tableColumn id="1" name="Branch Code" dataDxfId="6"/>
+    <tableColumn id="2" name="Employee Id" dataDxfId="5"/>
+    <tableColumn id="3" name="Employee Name" dataDxfId="4"/>
+    <tableColumn id="4" name="Email ID" dataDxfId="3"/>
+    <tableColumn id="16" name="Phone Number" dataDxfId="2"/>
+    <tableColumn id="17" name="Department Code" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -555,44 +554,44 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.08984375" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="20.90625" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="20.6328125" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="16.08984375" customWidth="1"/>
-    <col min="19" max="19" width="17.08984375" customWidth="1"/>
-    <col min="20" max="21" width="11.90625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="20" max="21" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -601,51 +600,51 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="1"/>
@@ -653,7 +652,7 @@
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="1"/>
@@ -701,19 +700,19 @@
       <c r="U8" s="1"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="AI11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="4"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="AI13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="AI14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="1"/>

--- a/src/assets/files/Company_Employee.xlsx
+++ b/src/assets/files/Company_Employee.xlsx
@@ -91,7 +91,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,14 +106,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -177,25 +183,47 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -220,24 +248,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -252,15 +262,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Branch Code" dataDxfId="6"/>
-    <tableColumn id="2" name="Employee Id" dataDxfId="5"/>
-    <tableColumn id="3" name="Employee Name" dataDxfId="4"/>
-    <tableColumn id="4" name="Email ID" dataDxfId="3"/>
-    <tableColumn id="16" name="Phone Number" dataDxfId="2"/>
-    <tableColumn id="17" name="Department Code" dataDxfId="1"/>
+    <tableColumn id="1" name="Branch Code" dataDxfId="5"/>
+    <tableColumn id="2" name="Employee Id" dataDxfId="4"/>
+    <tableColumn id="3" name="Employee Name" dataDxfId="3"/>
+    <tableColumn id="4" name="Email ID" dataDxfId="2"/>
+    <tableColumn id="16" name="Phone Number" dataDxfId="1"/>
+    <tableColumn id="17" name="Department Code" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -554,7 +564,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,77 +592,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="1"/>
@@ -700,19 +711,19 @@
       <c r="U8" s="1"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="AI11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="3"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="AI13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="3"/>
     </row>
     <row r="14" spans="1:38">
-      <c r="AI14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="3"/>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="1"/>

--- a/src/assets/files/Company_Employee.xlsx
+++ b/src/assets/files/Company_Employee.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -43,13 +43,13 @@
     <t>D002</t>
   </si>
   <si>
-    <t>Kannan Pk</t>
+    <t>PD002</t>
   </si>
   <si>
-    <t>kananemp@1mail.com</t>
+    <t>Sample@gmail.com</t>
   </si>
   <si>
-    <t>PD002</t>
+    <t>Sample Name</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,10 +617,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>10</v>

--- a/src/assets/files/Company_Employee.xlsx
+++ b/src/assets/files/Company_Employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Branch Code</t>
   </si>
@@ -34,22 +34,7 @@
     <t>Department Code</t>
   </si>
   <si>
-    <t>B001</t>
-  </si>
-  <si>
-    <t>8056067642</t>
-  </si>
-  <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>PD002</t>
-  </si>
-  <si>
     <t>Sample@gmail.com</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
   </si>
 </sst>
 </file>
@@ -564,7 +549,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,24 +598,14 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2"/>
